--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_EMM.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_EMM.XLSX
@@ -136,7 +136,7 @@
     <t>MAGNO ALEXANDRE JESUS</t>
   </si>
   <si>
-    <t> </t>
+    <t>LUIZ FERNANDO LIMA DIAS</t>
   </si>
   <si>
     <t> </t>
@@ -154,7 +154,7 @@
     <t>1240</t>
   </si>
   <si>
-    <t> </t>
+    <t>3219</t>
   </si>
   <si>
     <t> </t>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>3219</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>3219</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3219</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3984,7 +3984,7 @@
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3219</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6615,7 +6615,7 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>3219</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>3219</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_EMM.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_EMM.XLSX
@@ -174,10 +174,10 @@
     <t>IQ_EMM</t>
   </si>
   <si>
-    <t>FERNANDO LUIZ R.PORTES</t>
+    <t>RODRIGO FURLANETTO VIANA</t>
   </si>
   <si>
-    <t>Matr.: 1225</t>
+    <t>Matr.: 3135</t>
   </si>
   <si>
     <r>
@@ -6328,7 +6328,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>FERNANDO LUIZ R.PORTES</v>
+        <v>RODRIGO FURLANETTO VIANA</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6417,7 +6417,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 1225</v>
+        <v>Matr.: 3135</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_EMM.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_EMM.XLSX
@@ -139,10 +139,10 @@
     <t>LUIZ FERNANDO LIMA DIAS</t>
   </si>
   <si>
-    <t> </t>
+    <t>LENITA GOMES DA SILVA</t>
   </si>
   <si>
-    <t> </t>
+    <t>RODRIGO DA MOTA LEITE</t>
   </si>
   <si>
     <t> </t>
@@ -157,10 +157,10 @@
     <t>3219</t>
   </si>
   <si>
-    <t> </t>
+    <t>3401</t>
   </si>
   <si>
-    <t> </t>
+    <t>3410</t>
   </si>
   <si>
     <t> </t>
@@ -3533,11 +3533,11 @@
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
@@ -3560,11 +3560,11 @@
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
@@ -3584,11 +3584,11 @@
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3608,11 +3608,11 @@
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3913,11 +3913,11 @@
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>3401</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>3410</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
@@ -3940,11 +3940,11 @@
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>3401</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v> </v>
+        <v>3410</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
@@ -3964,11 +3964,11 @@
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3401</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3410</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3988,11 +3988,11 @@
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3401</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3410</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6619,11 +6619,11 @@
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6644,11 +6644,11 @@
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
@@ -6951,11 +6951,11 @@
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>3401</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>3410</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
@@ -6976,11 +6976,11 @@
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>3401</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v> </v>
+        <v>3410</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_EMM.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_EMM.XLSX
@@ -136,6 +136,9 @@
     <t>MAGNO ALEXANDRE JESUS</t>
   </si>
   <si>
+    <t>RODRIGO FURLANETTO VIANA</t>
+  </si>
+  <si>
     <t>LUIZ FERNANDO LIMA DIAS</t>
   </si>
   <si>
@@ -145,13 +148,13 @@
     <t>RODRIGO DA MOTA LEITE</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>1225</t>
   </si>
   <si>
     <t>1240</t>
+  </si>
+  <si>
+    <t>3135</t>
   </si>
   <si>
     <t>3219</t>
@@ -163,9 +166,6 @@
     <t>3410</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
     <t>SETOR IQ
 ENSAIOS MECÂNICOS
 E METALOGRÁFICOS</t>
@@ -174,10 +174,10 @@
     <t>IQ_EMM</t>
   </si>
   <si>
-    <t>RODRIGO FURLANETTO VIANA</t>
+    <t>JOSÉ DE CASTRO DA SILVA JUNIOR</t>
   </si>
   <si>
-    <t>Matr.: 3135</t>
+    <t>Matr.: 3345</t>
   </si>
   <si>
     <r>
@@ -3529,19 +3529,19 @@
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>RODRIGO FURLANETTO VIANA</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v>LENITA GOMES DA SILVA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
-        <v>RODRIGO DA MOTA LEITE</v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
@@ -3556,19 +3556,19 @@
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>RODRIGO FURLANETTO VIANA</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v>LENITA GOMES DA SILVA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
-        <v>RODRIGO DA MOTA LEITE</v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
@@ -3580,19 +3580,19 @@
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>RODRIGO FURLANETTO VIANA</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>LENITA GOMES DA SILVA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>RODRIGO DA MOTA LEITE</v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
@@ -3604,19 +3604,19 @@
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>RODRIGO FURLANETTO VIANA</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>LENITA GOMES DA SILVA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>RODRIGO DA MOTA LEITE</v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
     </row>
     <row r="13" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3909,19 +3909,19 @@
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3219</v>
+        <v>3135</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v>3401</v>
+        <v>3219</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
-        <v>3410</v>
+        <v>3401</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
-        <v> </v>
+        <v>3410</v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
@@ -3936,19 +3936,19 @@
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3219</v>
+        <v>3135</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v>3401</v>
+        <v>3219</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
-        <v>3410</v>
+        <v>3401</v>
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
-        <v> </v>
+        <v>3410</v>
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
@@ -3960,19 +3960,19 @@
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3219</v>
+        <v>3135</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3401</v>
+        <v>3219</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3410</v>
+        <v>3401</v>
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3410</v>
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
@@ -3984,19 +3984,19 @@
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3219</v>
+        <v>3135</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3401</v>
+        <v>3219</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3410</v>
+        <v>3401</v>
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3410</v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6328,7 +6328,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>RODRIGO FURLANETTO VIANA</v>
+        <v>JOSÉ DE CASTRO DA SILVA JUNIOR</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6417,7 +6417,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 3135</v>
+        <v>Matr.: 3345</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
@@ -6615,19 +6615,19 @@
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>RODRIGO FURLANETTO VIANA</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>LENITA GOMES DA SILVA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>RODRIGO DA MOTA LEITE</v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
@@ -6640,19 +6640,19 @@
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>LUIZ FERNANDO LIMA DIAS</v>
+        <v>RODRIGO FURLANETTO VIANA</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v>LENITA GOMES DA SILVA</v>
+        <v>LUIZ FERNANDO LIMA DIAS</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
-        <v>RODRIGO DA MOTA LEITE</v>
+        <v>LENITA GOMES DA SILVA</v>
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v> </v>
+        <v>RODRIGO DA MOTA LEITE</v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="262"/>
@@ -6947,19 +6947,19 @@
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3219</v>
+        <v>3135</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3401</v>
+        <v>3219</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>3410</v>
+        <v>3401</v>
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v> </v>
+        <v>3410</v>
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
@@ -6972,19 +6972,19 @@
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3219</v>
+        <v>3135</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v>3401</v>
+        <v>3219</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
-        <v>3410</v>
+        <v>3401</v>
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v> </v>
+        <v>3410</v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="262"/>
